--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1667295.176267434</v>
+        <v>1663983.125194871</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5590096.292725645</v>
+        <v>5590096.292725641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7272348.671941801</v>
+        <v>7272348.671941802</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.9110407773486974</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>312.9178238973317</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1454,7 +1454,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.788077704734</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -1505,7 +1505,7 @@
         <v>171.7502977295325</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9059774601759</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>21.67660379397372</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>60.82628469648025</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -1609,16 +1609,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>371.7087814008602</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>163.6948977819209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.6198168326377</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T15" t="n">
         <v>171.7502977295325</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9059774601754</v>
+        <v>207.9059774601761</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.46340365787607</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H16" t="n">
-        <v>147.518507518659</v>
+        <v>108.4617770348781</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T16" t="n">
         <v>230.2836698365084</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28402819993395</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>304.3940536830004</v>
       </c>
       <c r="I17" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.2350241967096</v>
+        <v>32.27645780278288</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.6198168326377</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T18" t="n">
         <v>171.7502977295325</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9059774601756</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>53.68387854277779</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.9156712849521</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>230.2836698365084</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>304.3940536830004</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T20" t="n">
-        <v>8.523770214331066</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U20" t="n">
         <v>253.0667166552282</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>103.8321590666892</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802207</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>177.5210747552482</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>188.2328313595025</v>
@@ -2298,13 +2298,13 @@
         <v>282.5451077791103</v>
       </c>
       <c r="V22" t="n">
-        <v>90.8795465408782</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>149.5684399949743</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>370.4382200228228</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H23" t="n">
         <v>304.3940536830004</v>
@@ -2371,10 +2371,10 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T23" t="n">
-        <v>214.2350241967096</v>
+        <v>48.72818560387473</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>38.5016727240259</v>
+        <v>73.32726024834079</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>376.4739326408398</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2614,13 +2614,13 @@
         <v>253.0667166552282</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>305.6702649717276</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2715,7 +2715,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>16.32955459641482</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>137.690841998748</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.3102966892195</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2809,7 +2809,7 @@
         <v>407.4250577753879</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I29" t="n">
         <v>75.03572506660649</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.2350241967096</v>
+        <v>176.9782808515548</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>188.2328313595025</v>
       </c>
       <c r="T31" t="n">
-        <v>226.3467314046733</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5833993034524</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>378.0952490094227</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3040,10 +3040,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>383.3956853193577</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H32" t="n">
         <v>304.3940536830004</v>
@@ -3189,7 +3189,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>102.4076630955249</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>188.2328313595025</v>
       </c>
       <c r="T34" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>86.88525321448439</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>334.8725256980363</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>139.2804949482907</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>117.9998964437302</v>
       </c>
       <c r="H36" t="n">
-        <v>79.11518820960292</v>
+        <v>79.115188209602</v>
       </c>
       <c r="I36" t="n">
         <v>19.30703081126192</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>188.2328313595025</v>
       </c>
       <c r="T37" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5451077791103</v>
+        <v>26.42081953983482</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>185.7933878370856</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>107.5288662471938</v>
       </c>
       <c r="G38" t="n">
-        <v>8.270022210096354</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H38" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.2350241967096</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3593,7 +3593,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880557004</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>117.9998964437302</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.6198168326375</v>
+        <v>117.6198168326382</v>
       </c>
       <c r="T39" t="n">
         <v>171.7502977295325</v>
@@ -3663,13 +3663,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2073794984432</v>
       </c>
       <c r="E40" t="n">
-        <v>99.01599354188961</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>296.7688479215125</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I41" t="n">
         <v>75.03572506660649</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>255.3898561277596</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>187.4140068734888</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>76.37712472738922</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>165.8510855690736</v>
@@ -3918,7 +3918,7 @@
         <v>147.518507518659</v>
       </c>
       <c r="I43" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>21.04990064045381</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>235.05507477202</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H44" t="n">
         <v>304.3940536830004</v>
@@ -4030,16 +4030,16 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>116.8610673081882</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552487</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>127.6875771194692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5451077791103</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>131.8912922547153</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>841.3835906994093</v>
+        <v>515.5139707088379</v>
       </c>
       <c r="C11" t="n">
-        <v>448.2080892023399</v>
+        <v>122.3384692117684</v>
       </c>
       <c r="D11" t="n">
-        <v>448.2080892023399</v>
+        <v>122.3384692117684</v>
       </c>
       <c r="E11" t="n">
-        <v>45.62456431888437</v>
+        <v>122.3384692117684</v>
       </c>
       <c r="F11" t="n">
-        <v>45.62456431888437</v>
+        <v>122.3384692117684</v>
       </c>
       <c r="G11" t="n">
-        <v>45.62456431888437</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="H11" t="n">
-        <v>45.62456431888437</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I11" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J11" t="n">
         <v>325.2244043032001</v>
@@ -5047,46 +5047,46 @@
         <v>385.8517535058462</v>
       </c>
       <c r="L11" t="n">
-        <v>907.4418463098807</v>
+        <v>485.0514864363261</v>
       </c>
       <c r="M11" t="n">
-        <v>1472.045829756075</v>
+        <v>980.8823281214027</v>
       </c>
       <c r="N11" t="n">
-        <v>1608.127889813613</v>
+        <v>1545.486311567597</v>
       </c>
       <c r="O11" t="n">
-        <v>2172.731873259807</v>
+        <v>2110.090295013792</v>
       </c>
       <c r="P11" t="n">
-        <v>2252.578791180273</v>
+        <v>2189.937212934257</v>
       </c>
       <c r="Q11" t="n">
-        <v>2281.228215944219</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R11" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S11" t="n">
-        <v>2151.682665188986</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T11" t="n">
-        <v>2151.682665188986</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U11" t="n">
-        <v>1896.059719072594</v>
+        <v>2025.605269827828</v>
       </c>
       <c r="V11" t="n">
-        <v>1553.952909776113</v>
+        <v>1683.498460531346</v>
       </c>
       <c r="W11" t="n">
-        <v>1553.952909776113</v>
+        <v>1312.499425499634</v>
       </c>
       <c r="X11" t="n">
-        <v>1237.874299778808</v>
+        <v>1312.499425499634</v>
       </c>
       <c r="Y11" t="n">
-        <v>841.3835906994093</v>
+        <v>916.0087164202348</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805.8542565822759</v>
+        <v>805.8542565822762</v>
       </c>
       <c r="C12" t="n">
-        <v>655.2000261423681</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D12" t="n">
         <v>525.1110587638489</v>
@@ -5114,58 +5114,58 @@
         <v>145.0409471682419</v>
       </c>
       <c r="H12" t="n">
-        <v>65.12661564339137</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I12" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J12" t="n">
-        <v>45.62456431888437</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K12" t="n">
-        <v>442.6071462050347</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L12" t="n">
-        <v>1007.211129651229</v>
+        <v>791.7851674755891</v>
       </c>
       <c r="M12" t="n">
-        <v>1131.303476469975</v>
+        <v>915.877514294335</v>
       </c>
       <c r="N12" t="n">
-        <v>1268.045797655947</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O12" t="n">
-        <v>1832.649781102141</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.889380974462</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q12" t="n">
-        <v>2251.849419974994</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R12" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S12" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T12" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U12" t="n">
-        <v>1778.929133093364</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V12" t="n">
-        <v>1556.389131464431</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W12" t="n">
-        <v>1326.271885597718</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X12" t="n">
         <v>1136.96480794773</v>
       </c>
       <c r="Y12" t="n">
-        <v>957.6505910232372</v>
+        <v>957.6505910232376</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.1694487070729</v>
+        <v>461.4766270175312</v>
       </c>
       <c r="C13" t="n">
-        <v>463.1694487070729</v>
+        <v>461.4766270175312</v>
       </c>
       <c r="D13" t="n">
-        <v>463.1694487070729</v>
+        <v>305.843513920046</v>
       </c>
       <c r="E13" t="n">
-        <v>463.1694487070729</v>
+        <v>305.843513920046</v>
       </c>
       <c r="F13" t="n">
-        <v>305.8435139200459</v>
+        <v>305.843513920046</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8435139200459</v>
+        <v>305.843513920046</v>
       </c>
       <c r="H13" t="n">
-        <v>156.834920466855</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="I13" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J13" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K13" t="n">
         <v>230.9743700006169</v>
       </c>
       <c r="L13" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M13" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N13" t="n">
         <v>1091.563784414643</v>
@@ -5223,28 +5223,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.180967666007</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.180967666007</v>
+        <v>1602.466141800006</v>
       </c>
       <c r="T13" t="n">
-        <v>1533.180967666007</v>
+        <v>1369.856374288382</v>
       </c>
       <c r="U13" t="n">
-        <v>1247.781868899229</v>
+        <v>1369.856374288382</v>
       </c>
       <c r="V13" t="n">
-        <v>981.8025237200528</v>
+        <v>1103.877029109206</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3618321074465</v>
+        <v>1103.877029109206</v>
       </c>
       <c r="X13" t="n">
-        <v>686.2815098904296</v>
+        <v>869.7967068921891</v>
       </c>
       <c r="Y13" t="n">
-        <v>463.1694487070729</v>
+        <v>646.6846457088325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.62666093634</v>
+        <v>903.8828157940563</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.451159439271</v>
+        <v>903.8828157940563</v>
       </c>
       <c r="D14" t="n">
-        <v>769.9877438828464</v>
+        <v>518.4416870107241</v>
       </c>
       <c r="E14" t="n">
-        <v>769.9877438828464</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="F14" t="n">
         <v>353.0933054128242</v>
@@ -5272,58 +5272,58 @@
         <v>353.0933054128242</v>
       </c>
       <c r="H14" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I14" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J14" t="n">
-        <v>64.0715918314493</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K14" t="n">
-        <v>625.3091162090022</v>
+        <v>811.3577032902381</v>
       </c>
       <c r="L14" t="n">
-        <v>1189.913099655196</v>
+        <v>910.5574362207179</v>
       </c>
       <c r="M14" t="n">
-        <v>1320.877050621267</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N14" t="n">
-        <v>1456.959110678805</v>
+        <v>1177.603447244327</v>
       </c>
       <c r="O14" t="n">
-        <v>1576.789621347385</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P14" t="n">
-        <v>2141.393604793579</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q14" t="n">
-        <v>2281.228215944219</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R14" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S14" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T14" t="n">
-        <v>2281.228215944219</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.228215944219</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.121406647737</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.121406647737</v>
+        <v>1693.830166572397</v>
       </c>
       <c r="X14" t="n">
-        <v>1939.121406647737</v>
+        <v>1304.377561505453</v>
       </c>
       <c r="Y14" t="n">
-        <v>1939.121406647737</v>
+        <v>1304.377561505453</v>
       </c>
     </row>
     <row r="15">
@@ -5339,7 +5339,7 @@
         <v>655.2000261423684</v>
       </c>
       <c r="D15" t="n">
-        <v>525.1110587638487</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E15" t="n">
         <v>388.6645678747365</v>
@@ -5351,43 +5351,43 @@
         <v>145.0409471682419</v>
       </c>
       <c r="H15" t="n">
-        <v>65.12661564339137</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I15" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J15" t="n">
-        <v>45.62456431888437</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K15" t="n">
-        <v>94.29784861740941</v>
+        <v>408.1971038522145</v>
       </c>
       <c r="L15" t="n">
-        <v>658.9018320636036</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M15" t="n">
-        <v>782.9941788823495</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N15" t="n">
-        <v>1347.598162328544</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O15" t="n">
-        <v>1698.107556676738</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P15" t="n">
-        <v>2262.711540122932</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q15" t="n">
-        <v>2281.228215944219</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R15" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S15" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T15" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U15" t="n">
         <v>1778.929133093365</v>
@@ -5399,7 +5399,7 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X15" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y15" t="n">
         <v>957.6505910232376</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>606.2931675132631</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="C16" t="n">
-        <v>606.2931675132631</v>
+        <v>480.0341987058627</v>
       </c>
       <c r="D16" t="n">
-        <v>450.6600544157779</v>
+        <v>480.0341987058627</v>
       </c>
       <c r="E16" t="n">
-        <v>295.1012422749804</v>
+        <v>480.0341987058627</v>
       </c>
       <c r="F16" t="n">
-        <v>194.6331577720753</v>
+        <v>322.7082639188356</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6331577720753</v>
+        <v>155.1819148591653</v>
       </c>
       <c r="H16" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I16" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J16" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K16" t="n">
         <v>230.9743700006169</v>
       </c>
       <c r="L16" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M16" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N16" t="n">
         <v>1091.563784414643</v>
@@ -5463,25 +5463,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S16" t="n">
-        <v>1624.361701187858</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T16" t="n">
-        <v>1391.751933676234</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U16" t="n">
-        <v>1106.352834909456</v>
+        <v>916.2186618190492</v>
       </c>
       <c r="V16" t="n">
-        <v>840.3734897302801</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="W16" t="n">
-        <v>840.3734897302801</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="X16" t="n">
-        <v>606.2931675132631</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="Y16" t="n">
-        <v>606.2931675132631</v>
+        <v>650.2393166398734</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1267.843746813312</v>
+        <v>738.5344341961564</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.843746813312</v>
+        <v>738.5344341961564</v>
       </c>
       <c r="D17" t="n">
-        <v>1248.364930449743</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="E17" t="n">
-        <v>845.7814055662873</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="F17" t="n">
-        <v>428.886967096265</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="G17" t="n">
-        <v>428.886967096265</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="H17" t="n">
-        <v>121.4182260023253</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I17" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J17" t="n">
-        <v>64.0715918314493</v>
+        <v>64.07159183144933</v>
       </c>
       <c r="K17" t="n">
         <v>124.6989410340955</v>
       </c>
       <c r="L17" t="n">
-        <v>689.3029244802897</v>
+        <v>689.3029244802899</v>
       </c>
       <c r="M17" t="n">
-        <v>820.2668754463601</v>
+        <v>1253.906907926484</v>
       </c>
       <c r="N17" t="n">
-        <v>956.3489355038982</v>
+        <v>1818.510891372679</v>
       </c>
       <c r="O17" t="n">
-        <v>1520.952918950092</v>
+        <v>1938.341402041259</v>
       </c>
       <c r="P17" t="n">
-        <v>2085.556902396287</v>
+        <v>2018.188319961724</v>
       </c>
       <c r="Q17" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R17" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S17" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T17" t="n">
-        <v>2064.829201604108</v>
+        <v>2248.625733315146</v>
       </c>
       <c r="U17" t="n">
-        <v>2064.829201604108</v>
+        <v>2248.625733315146</v>
       </c>
       <c r="V17" t="n">
-        <v>2064.829201604108</v>
+        <v>1906.518924018665</v>
       </c>
       <c r="W17" t="n">
-        <v>2064.829201604108</v>
+        <v>1535.519888986952</v>
       </c>
       <c r="X17" t="n">
-        <v>2064.829201604108</v>
+        <v>1535.519888986952</v>
       </c>
       <c r="Y17" t="n">
-        <v>1668.338492524709</v>
+        <v>1139.029179907553</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>805.8542565822761</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C18" t="n">
-        <v>655.2000261423683</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D18" t="n">
-        <v>525.1110587638486</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E18" t="n">
-        <v>388.6645678747363</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F18" t="n">
         <v>264.2327617578683</v>
@@ -5588,58 +5588,58 @@
         <v>145.0409471682419</v>
       </c>
       <c r="H18" t="n">
-        <v>65.12661564339137</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I18" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J18" t="n">
-        <v>45.62456431888437</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K18" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L18" t="n">
-        <v>189.8547377639867</v>
+        <v>791.7851674755891</v>
       </c>
       <c r="M18" t="n">
-        <v>732.8206101789769</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N18" t="n">
-        <v>1297.424593625171</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.028577071365</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P18" t="n">
-        <v>1938.268176943687</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q18" t="n">
-        <v>2281.228215944219</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R18" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S18" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T18" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U18" t="n">
-        <v>1778.929133093364</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V18" t="n">
         <v>1556.389131464432</v>
       </c>
       <c r="W18" t="n">
-        <v>1326.271885597718</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X18" t="n">
         <v>1136.96480794773</v>
       </c>
       <c r="Y18" t="n">
-        <v>957.6505910232374</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>335.9465219346649</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="C19" t="n">
-        <v>165.7414040006541</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D19" t="n">
-        <v>165.7414040006541</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E19" t="n">
-        <v>165.7414040006541</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="F19" t="n">
-        <v>165.7414040006541</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7414040006541</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H19" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I19" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J19" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K19" t="n">
         <v>230.9743700006169</v>
       </c>
       <c r="L19" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M19" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N19" t="n">
         <v>1091.563784414643</v>
@@ -5697,28 +5697,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.180967666007</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.0467945756</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T19" t="n">
-        <v>1110.437027063975</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U19" t="n">
-        <v>825.0379282971974</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="V19" t="n">
-        <v>559.0585831180216</v>
+        <v>840.3734897302801</v>
       </c>
       <c r="W19" t="n">
-        <v>559.0585831180216</v>
+        <v>557.0430876614578</v>
       </c>
       <c r="X19" t="n">
-        <v>559.0585831180216</v>
+        <v>322.9627654444408</v>
       </c>
       <c r="Y19" t="n">
-        <v>335.9465219346649</v>
+        <v>99.85070426108419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.852331793349</v>
+        <v>814.3280958795974</v>
       </c>
       <c r="C20" t="n">
-        <v>755.6768302962796</v>
+        <v>814.3280958795974</v>
       </c>
       <c r="D20" t="n">
-        <v>755.6768302962796</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="E20" t="n">
-        <v>353.0933054128242</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="F20" t="n">
-        <v>353.0933054128242</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="G20" t="n">
-        <v>353.0933054128242</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H20" t="n">
-        <v>45.62456431888437</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I20" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J20" t="n">
-        <v>325.2244043032001</v>
+        <v>64.07159183144933</v>
       </c>
       <c r="K20" t="n">
-        <v>385.8517535058462</v>
+        <v>625.3091162090022</v>
       </c>
       <c r="L20" t="n">
-        <v>485.0514864363261</v>
+        <v>724.5088491394821</v>
       </c>
       <c r="M20" t="n">
-        <v>616.0154374023965</v>
+        <v>855.4728001055526</v>
       </c>
       <c r="N20" t="n">
-        <v>752.0974974599346</v>
+        <v>991.5548601630908</v>
       </c>
       <c r="O20" t="n">
-        <v>1316.701480906129</v>
+        <v>1360.075536158923</v>
       </c>
       <c r="P20" t="n">
-        <v>1881.305464352323</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q20" t="n">
-        <v>2218.586637698202</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R20" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S20" t="n">
-        <v>2151.682665188986</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T20" t="n">
-        <v>2143.072796285622</v>
+        <v>1935.283650848877</v>
       </c>
       <c r="U20" t="n">
-        <v>1887.44985016923</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="V20" t="n">
-        <v>1545.343040872748</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="W20" t="n">
-        <v>1545.343040872748</v>
+        <v>1308.661669700772</v>
       </c>
       <c r="X20" t="n">
-        <v>1545.343040872748</v>
+        <v>919.2090646338289</v>
       </c>
       <c r="Y20" t="n">
-        <v>1148.852331793349</v>
+        <v>814.3280958795974</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>805.8542565822759</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C21" t="n">
-        <v>655.2000261423681</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D21" t="n">
-        <v>525.1110587638484</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E21" t="n">
         <v>388.6645678747365</v>
@@ -5825,58 +5825,58 @@
         <v>145.0409471682419</v>
       </c>
       <c r="H21" t="n">
-        <v>65.12661564339137</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I21" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J21" t="n">
-        <v>45.62456431888437</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K21" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L21" t="n">
-        <v>189.8547377639867</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M21" t="n">
-        <v>313.9470845827326</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N21" t="n">
-        <v>878.5510680289268</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O21" t="n">
-        <v>1344.285397528268</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P21" t="n">
-        <v>1908.889380974462</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q21" t="n">
-        <v>2251.849419974994</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R21" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S21" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T21" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U21" t="n">
-        <v>1778.929133093364</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V21" t="n">
-        <v>1556.389131464431</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W21" t="n">
-        <v>1326.271885597718</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X21" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y21" t="n">
-        <v>957.6505910232372</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="22">
@@ -5889,37 +5889,37 @@
         <v>215.8296822528952</v>
       </c>
       <c r="C22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="F22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I22" t="n">
-        <v>45.62456431888437</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J22" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K22" t="n">
         <v>230.9743700006169</v>
       </c>
       <c r="L22" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M22" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N22" t="n">
         <v>1091.563784414643</v>
@@ -5934,22 +5934,22 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.180967666007</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S22" t="n">
-        <v>1343.0467945756</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T22" t="n">
-        <v>1110.437027063975</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U22" t="n">
-        <v>825.0379282971974</v>
+        <v>916.2186618190492</v>
       </c>
       <c r="V22" t="n">
-        <v>733.2404065387345</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="W22" t="n">
-        <v>449.9100044699121</v>
+        <v>366.9089145710511</v>
       </c>
       <c r="X22" t="n">
         <v>215.8296822528952</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2061.34501649077</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C23" t="n">
-        <v>1668.169514993701</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D23" t="n">
-        <v>1293.989494768627</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E23" t="n">
-        <v>891.4059698851718</v>
+        <v>1302.946432284553</v>
       </c>
       <c r="F23" t="n">
-        <v>474.5115314151495</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G23" t="n">
         <v>474.5115314151495</v>
@@ -5986,13 +5986,13 @@
         <v>167.0427903212097</v>
       </c>
       <c r="I23" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J23" t="n">
-        <v>370.8489686220844</v>
+        <v>370.8489686220845</v>
       </c>
       <c r="K23" t="n">
-        <v>932.0864929996374</v>
+        <v>932.0864929996375</v>
       </c>
       <c r="L23" t="n">
         <v>1676.322205681833</v>
@@ -6004,37 +6004,37 @@
         <v>3313.03550789364</v>
       </c>
       <c r="O23" t="n">
-        <v>3566.433314482817</v>
+        <v>4020.973818504404</v>
       </c>
       <c r="P23" t="n">
-        <v>4143.26615730332</v>
+        <v>4143.266157303321</v>
       </c>
       <c r="Q23" t="n">
-        <v>4499.814853642422</v>
+        <v>4499.814853642423</v>
       </c>
       <c r="R23" t="n">
-        <v>4562.456431888439</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="S23" t="n">
-        <v>4432.910881133206</v>
+        <v>4432.910881133207</v>
       </c>
       <c r="T23" t="n">
-        <v>4216.511866793096</v>
+        <v>4383.690491634344</v>
       </c>
       <c r="U23" t="n">
-        <v>3960.888920676703</v>
+        <v>4383.690491634344</v>
       </c>
       <c r="V23" t="n">
-        <v>3618.782111380222</v>
+        <v>4041.583682337862</v>
       </c>
       <c r="W23" t="n">
-        <v>3247.783076348509</v>
+        <v>3670.58464730615</v>
       </c>
       <c r="X23" t="n">
-        <v>2858.330471281566</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2461.839762202167</v>
+        <v>2884.641333159807</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>851.4788209011606</v>
+        <v>851.4788209011607</v>
       </c>
       <c r="C24" t="n">
-        <v>700.8245904612528</v>
+        <v>700.8245904612529</v>
       </c>
       <c r="D24" t="n">
-        <v>570.7356230827331</v>
+        <v>570.7356230827332</v>
       </c>
       <c r="E24" t="n">
-        <v>434.2891321936209</v>
+        <v>434.289132193621</v>
       </c>
       <c r="F24" t="n">
-        <v>309.8573260767527</v>
+        <v>309.8573260767528</v>
       </c>
       <c r="G24" t="n">
         <v>190.6655114871263</v>
@@ -6065,31 +6065,31 @@
         <v>110.7511799622758</v>
       </c>
       <c r="I24" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J24" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="K24" t="n">
-        <v>139.9224129362938</v>
+        <v>548.3625249785202</v>
       </c>
       <c r="L24" t="n">
-        <v>235.4793020828711</v>
+        <v>1216.64524341176</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.601416118931</v>
+        <v>1340.737590230506</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.343737304903</v>
+        <v>1477.479911416478</v>
       </c>
       <c r="O24" t="n">
-        <v>1878.274345421026</v>
+        <v>1588.129553641619</v>
       </c>
       <c r="P24" t="n">
-        <v>1954.513945293347</v>
+        <v>2156.203053401459</v>
       </c>
       <c r="Q24" t="n">
-        <v>2297.473984293879</v>
+        <v>2326.852780263104</v>
       </c>
       <c r="R24" t="n">
         <v>2326.852780263104</v>
@@ -6098,7 +6098,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T24" t="n">
-        <v>2034.55973525081</v>
+        <v>2034.559735250811</v>
       </c>
       <c r="U24" t="n">
         <v>1824.553697412249</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.1397071468859</v>
+        <v>478.2761161670697</v>
       </c>
       <c r="C25" t="n">
-        <v>91.24912863776878</v>
+        <v>404.2081765222811</v>
       </c>
       <c r="D25" t="n">
-        <v>91.24912863776878</v>
+        <v>248.5750634247958</v>
       </c>
       <c r="E25" t="n">
-        <v>91.24912863776878</v>
+        <v>248.5750634247958</v>
       </c>
       <c r="F25" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="G25" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="H25" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="I25" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J25" t="n">
         <v>111.9002885190532</v>
@@ -6171,28 +6171,28 @@
         <v>1669.986265506743</v>
       </c>
       <c r="R25" t="n">
-        <v>1578.805531984891</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S25" t="n">
-        <v>1388.671358894484</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="T25" t="n">
-        <v>1156.06159138286</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="U25" t="n">
-        <v>870.6624926160819</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="V25" t="n">
-        <v>870.6624926160819</v>
+        <v>1404.006920327567</v>
       </c>
       <c r="W25" t="n">
-        <v>587.3320905472594</v>
+        <v>1120.676518258745</v>
       </c>
       <c r="X25" t="n">
-        <v>353.2517683302425</v>
+        <v>886.5961960417277</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.1397071468859</v>
+        <v>663.484134858371</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2461.839762202167</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C26" t="n">
-        <v>2068.664260705098</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D26" t="n">
-        <v>1683.223131921765</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E26" t="n">
         <v>1302.946432284553</v>
@@ -6223,55 +6223,55 @@
         <v>167.0427903212097</v>
       </c>
       <c r="I26" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J26" t="n">
-        <v>370.8489686220844</v>
+        <v>370.8489686220845</v>
       </c>
       <c r="K26" t="n">
-        <v>477.5459889780506</v>
+        <v>932.0864929996375</v>
       </c>
       <c r="L26" t="n">
-        <v>1221.781701660246</v>
+        <v>1676.322205681833</v>
       </c>
       <c r="M26" t="n">
-        <v>2046.974353752647</v>
+        <v>2109.615931998664</v>
       </c>
       <c r="N26" t="n">
-        <v>2858.495003872054</v>
+        <v>2921.136582118071</v>
       </c>
       <c r="O26" t="n">
-        <v>3566.433314482817</v>
+        <v>3629.074892728834</v>
       </c>
       <c r="P26" t="n">
-        <v>4143.26615730332</v>
+        <v>4205.907735549337</v>
       </c>
       <c r="Q26" t="n">
-        <v>4499.814853642422</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="R26" t="n">
-        <v>4562.456431888439</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="S26" t="n">
-        <v>4432.910881133206</v>
+        <v>4432.910881133207</v>
       </c>
       <c r="T26" t="n">
         <v>4216.511866793096</v>
       </c>
       <c r="U26" t="n">
-        <v>3960.888920676703</v>
+        <v>3960.888920676704</v>
       </c>
       <c r="V26" t="n">
-        <v>3618.782111380222</v>
+        <v>3652.131077270919</v>
       </c>
       <c r="W26" t="n">
-        <v>3247.783076348509</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="X26" t="n">
-        <v>2858.330471281566</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="Y26" t="n">
-        <v>2461.839762202167</v>
+        <v>2884.641333159807</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>851.4788209011606</v>
+        <v>851.4788209011607</v>
       </c>
       <c r="C27" t="n">
-        <v>700.8245904612528</v>
+        <v>700.8245904612529</v>
       </c>
       <c r="D27" t="n">
-        <v>570.7356230827331</v>
+        <v>570.7356230827332</v>
       </c>
       <c r="E27" t="n">
-        <v>434.2891321936209</v>
+        <v>434.289132193621</v>
       </c>
       <c r="F27" t="n">
-        <v>309.8573260767527</v>
+        <v>309.8573260767528</v>
       </c>
       <c r="G27" t="n">
         <v>190.6655114871263</v>
@@ -6302,19 +6302,19 @@
         <v>110.7511799622758</v>
       </c>
       <c r="I27" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J27" t="n">
-        <v>91.24912863776878</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K27" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L27" t="n">
-        <v>235.4793020828711</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M27" t="n">
-        <v>398.7521191862094</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N27" t="n">
         <v>1275.790803308365</v>
@@ -6335,7 +6335,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T27" t="n">
-        <v>2034.55973525081</v>
+        <v>2034.559735250811</v>
       </c>
       <c r="U27" t="n">
         <v>1824.553697412249</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.24912863776878</v>
+        <v>426.9573396173087</v>
       </c>
       <c r="C28" t="n">
-        <v>91.24912863776878</v>
+        <v>256.7522216832979</v>
       </c>
       <c r="D28" t="n">
-        <v>91.24912863776878</v>
+        <v>256.7522216832979</v>
       </c>
       <c r="E28" t="n">
-        <v>91.24912863776878</v>
+        <v>256.7522216832979</v>
       </c>
       <c r="F28" t="n">
-        <v>91.24912863776878</v>
+        <v>256.7522216832979</v>
       </c>
       <c r="G28" t="n">
-        <v>91.24912863776878</v>
+        <v>256.7522216832979</v>
       </c>
       <c r="H28" t="n">
-        <v>91.24912863776878</v>
+        <v>107.743628230107</v>
       </c>
       <c r="I28" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J28" t="n">
         <v>111.9002885190532</v>
@@ -6408,28 +6408,28 @@
         <v>1669.986265506743</v>
       </c>
       <c r="R28" t="n">
-        <v>1578.805531984891</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S28" t="n">
-        <v>1388.671358894484</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="T28" t="n">
-        <v>1156.06159138286</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.979932798266</v>
+        <v>1384.587166739965</v>
       </c>
       <c r="V28" t="n">
-        <v>1016.979932798266</v>
+        <v>1118.607821560789</v>
       </c>
       <c r="W28" t="n">
-        <v>733.6495307294437</v>
+        <v>835.2774194919666</v>
       </c>
       <c r="X28" t="n">
-        <v>499.5692085124267</v>
+        <v>835.2774194919666</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.45714732907</v>
+        <v>612.1653583086099</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2176.677846354471</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C29" t="n">
-        <v>1783.502344857401</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D29" t="n">
-        <v>1398.061216074069</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E29" t="n">
-        <v>995.4776911906137</v>
+        <v>1302.946432284553</v>
       </c>
       <c r="F29" t="n">
-        <v>578.5832527205914</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G29" t="n">
-        <v>167.0427903212097</v>
+        <v>474.5115314151495</v>
       </c>
       <c r="H29" t="n">
         <v>167.0427903212097</v>
       </c>
       <c r="I29" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J29" t="n">
-        <v>370.8489686220844</v>
+        <v>109.6961561503337</v>
       </c>
       <c r="K29" t="n">
-        <v>477.5459889780506</v>
+        <v>670.9336805278867</v>
       </c>
       <c r="L29" t="n">
-        <v>1221.781701660246</v>
+        <v>1415.169393210082</v>
       </c>
       <c r="M29" t="n">
-        <v>2046.974353752647</v>
+        <v>2240.362045302483</v>
       </c>
       <c r="N29" t="n">
-        <v>2858.495003872054</v>
+        <v>3051.88269542189</v>
       </c>
       <c r="O29" t="n">
-        <v>3566.433314482817</v>
+        <v>3759.821006032654</v>
       </c>
       <c r="P29" t="n">
-        <v>4143.26615730332</v>
+        <v>4336.653848853157</v>
       </c>
       <c r="Q29" t="n">
-        <v>4499.814853642422</v>
+        <v>4499.814853642423</v>
       </c>
       <c r="R29" t="n">
-        <v>4562.456431888439</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="S29" t="n">
-        <v>4432.910881133206</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="T29" t="n">
-        <v>4216.511866793096</v>
+        <v>4383.690491634344</v>
       </c>
       <c r="U29" t="n">
-        <v>3960.888920676703</v>
+        <v>4383.690491634344</v>
       </c>
       <c r="V29" t="n">
-        <v>3618.782111380222</v>
+        <v>4041.583682337862</v>
       </c>
       <c r="W29" t="n">
-        <v>3247.783076348509</v>
+        <v>3670.58464730615</v>
       </c>
       <c r="X29" t="n">
-        <v>2858.330471281566</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="Y29" t="n">
-        <v>2461.839762202167</v>
+        <v>2884.641333159807</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>851.4788209011606</v>
+        <v>851.4788209011607</v>
       </c>
       <c r="C30" t="n">
-        <v>700.8245904612528</v>
+        <v>700.8245904612529</v>
       </c>
       <c r="D30" t="n">
-        <v>570.7356230827331</v>
+        <v>570.7356230827332</v>
       </c>
       <c r="E30" t="n">
-        <v>434.2891321936209</v>
+        <v>434.289132193621</v>
       </c>
       <c r="F30" t="n">
-        <v>309.8573260767527</v>
+        <v>309.8573260767528</v>
       </c>
       <c r="G30" t="n">
         <v>190.6655114871263</v>
@@ -6539,31 +6539,31 @@
         <v>110.7511799622758</v>
       </c>
       <c r="I30" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J30" t="n">
-        <v>91.24912863776878</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K30" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L30" t="n">
-        <v>808.2051313695333</v>
+        <v>837.4097317944734</v>
       </c>
       <c r="M30" t="n">
-        <v>932.2974781882792</v>
+        <v>961.5020786132193</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.624703195884</v>
+        <v>1098.244399799191</v>
       </c>
       <c r="O30" t="n">
-        <v>1878.274345421026</v>
+        <v>1415.819241502732</v>
       </c>
       <c r="P30" t="n">
-        <v>1954.513945293347</v>
+        <v>1983.892741262571</v>
       </c>
       <c r="Q30" t="n">
-        <v>2297.473984293879</v>
+        <v>2326.852780263104</v>
       </c>
       <c r="R30" t="n">
         <v>2326.852780263104</v>
@@ -6572,7 +6572,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T30" t="n">
-        <v>2034.55973525081</v>
+        <v>2034.559735250811</v>
       </c>
       <c r="U30" t="n">
         <v>1824.553697412249</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.24912863776878</v>
+        <v>402.4410538760516</v>
       </c>
       <c r="C31" t="n">
-        <v>91.24912863776878</v>
+        <v>402.4410538760516</v>
       </c>
       <c r="D31" t="n">
-        <v>91.24912863776878</v>
+        <v>246.8079407785663</v>
       </c>
       <c r="E31" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="F31" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="G31" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="H31" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="I31" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J31" t="n">
         <v>111.9002885190532</v>
@@ -6645,28 +6645,28 @@
         <v>1669.986265506743</v>
       </c>
       <c r="R31" t="n">
-        <v>1578.805531984891</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S31" t="n">
-        <v>1388.671358894484</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="T31" t="n">
-        <v>1160.038296869562</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="U31" t="n">
-        <v>874.6391981027838</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="V31" t="n">
-        <v>608.659852923608</v>
+        <v>1213.872747237161</v>
       </c>
       <c r="W31" t="n">
-        <v>325.3294508547857</v>
+        <v>930.5423451683382</v>
       </c>
       <c r="X31" t="n">
-        <v>91.24912863776878</v>
+        <v>810.7611337507095</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.24912863776878</v>
+        <v>587.6490725673528</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2061.34501649077</v>
+        <v>2061.345016490771</v>
       </c>
       <c r="C32" t="n">
-        <v>1679.43062355196</v>
+        <v>2061.345016490771</v>
       </c>
       <c r="D32" t="n">
-        <v>1293.989494768627</v>
+        <v>1675.903887707439</v>
       </c>
       <c r="E32" t="n">
-        <v>891.4059698851718</v>
+        <v>1273.320362823983</v>
       </c>
       <c r="F32" t="n">
-        <v>474.5115314151495</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G32" t="n">
         <v>474.5115314151495</v>
@@ -6697,13 +6697,13 @@
         <v>167.0427903212097</v>
       </c>
       <c r="I32" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J32" t="n">
-        <v>370.8489686220844</v>
+        <v>370.8489686220845</v>
       </c>
       <c r="K32" t="n">
-        <v>932.0864929996374</v>
+        <v>932.0864929996375</v>
       </c>
       <c r="L32" t="n">
         <v>1676.322205681833</v>
@@ -6712,40 +6712,40 @@
         <v>2501.514857774234</v>
       </c>
       <c r="N32" t="n">
-        <v>2858.495003872054</v>
+        <v>3313.03550789364</v>
       </c>
       <c r="O32" t="n">
-        <v>3566.433314482817</v>
+        <v>3566.433314482818</v>
       </c>
       <c r="P32" t="n">
-        <v>4143.26615730332</v>
+        <v>4143.266157303321</v>
       </c>
       <c r="Q32" t="n">
-        <v>4499.814853642422</v>
+        <v>4499.814853642423</v>
       </c>
       <c r="R32" t="n">
-        <v>4562.456431888439</v>
+        <v>4562.45643188844</v>
       </c>
       <c r="S32" t="n">
-        <v>4432.910881133206</v>
+        <v>4432.910881133207</v>
       </c>
       <c r="T32" t="n">
         <v>4216.511866793096</v>
       </c>
       <c r="U32" t="n">
-        <v>3960.888920676703</v>
+        <v>3960.888920676704</v>
       </c>
       <c r="V32" t="n">
-        <v>3618.782111380222</v>
+        <v>3618.782111380223</v>
       </c>
       <c r="W32" t="n">
-        <v>3247.783076348509</v>
+        <v>3247.78307634851</v>
       </c>
       <c r="X32" t="n">
-        <v>2858.330471281566</v>
+        <v>2858.330471281567</v>
       </c>
       <c r="Y32" t="n">
-        <v>2461.839762202167</v>
+        <v>2461.839762202168</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>851.4788209011606</v>
+        <v>851.4788209011607</v>
       </c>
       <c r="C33" t="n">
-        <v>700.8245904612528</v>
+        <v>700.8245904612529</v>
       </c>
       <c r="D33" t="n">
-        <v>570.7356230827331</v>
+        <v>570.7356230827332</v>
       </c>
       <c r="E33" t="n">
-        <v>434.2891321936209</v>
+        <v>434.289132193621</v>
       </c>
       <c r="F33" t="n">
-        <v>309.8573260767527</v>
+        <v>309.8573260767528</v>
       </c>
       <c r="G33" t="n">
         <v>190.6655114871263</v>
@@ -6776,22 +6776,22 @@
         <v>110.7511799622758</v>
       </c>
       <c r="I33" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J33" t="n">
-        <v>91.24912863776878</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K33" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L33" t="n">
-        <v>235.4793020828711</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M33" t="n">
-        <v>530.7675162314124</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N33" t="n">
-        <v>667.5098374173841</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O33" t="n">
         <v>1386.440445533507</v>
@@ -6809,7 +6809,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T33" t="n">
-        <v>2034.55973525081</v>
+        <v>2034.559735250811</v>
       </c>
       <c r="U33" t="n">
         <v>1824.553697412249</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.24912863776878</v>
+        <v>522.2222652936803</v>
       </c>
       <c r="C34" t="n">
-        <v>91.24912863776878</v>
+        <v>352.0171473596695</v>
       </c>
       <c r="D34" t="n">
-        <v>91.24912863776878</v>
+        <v>352.0171473596695</v>
       </c>
       <c r="E34" t="n">
-        <v>91.24912863776878</v>
+        <v>352.0171473596695</v>
       </c>
       <c r="F34" t="n">
-        <v>91.24912863776878</v>
+        <v>194.6912125726424</v>
       </c>
       <c r="G34" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="H34" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="I34" t="n">
-        <v>91.24912863776878</v>
+        <v>91.24912863776879</v>
       </c>
       <c r="J34" t="n">
         <v>111.9002885190532</v>
@@ -6882,28 +6882,28 @@
         <v>1669.986265506743</v>
       </c>
       <c r="R34" t="n">
-        <v>1578.805531984891</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S34" t="n">
-        <v>1388.671358894484</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="T34" t="n">
-        <v>1156.06159138286</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="U34" t="n">
-        <v>870.6624926160819</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="V34" t="n">
-        <v>870.6624926160819</v>
+        <v>1213.872747237161</v>
       </c>
       <c r="W34" t="n">
-        <v>587.3320905472594</v>
+        <v>930.5423451683382</v>
       </c>
       <c r="X34" t="n">
-        <v>499.5692085124267</v>
+        <v>930.5423451683382</v>
       </c>
       <c r="Y34" t="n">
-        <v>276.45714732907</v>
+        <v>707.4302839849815</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>786.4631656650029</v>
+        <v>1250.543656455694</v>
       </c>
       <c r="C35" t="n">
-        <v>448.2080892023399</v>
+        <v>1250.543656455694</v>
       </c>
       <c r="D35" t="n">
-        <v>448.2080892023399</v>
+        <v>865.1025276723622</v>
       </c>
       <c r="E35" t="n">
-        <v>45.6245643188844</v>
+        <v>462.5190027889066</v>
       </c>
       <c r="F35" t="n">
         <v>45.6245643188844</v>
@@ -6940,49 +6940,49 @@
         <v>325.2244043032001</v>
       </c>
       <c r="K35" t="n">
-        <v>787.6113356413015</v>
+        <v>811.3577032902381</v>
       </c>
       <c r="L35" t="n">
-        <v>1352.215319087496</v>
+        <v>910.5574362207179</v>
       </c>
       <c r="M35" t="n">
-        <v>1916.819302533691</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N35" t="n">
-        <v>2052.901362591229</v>
+        <v>1177.603447244327</v>
       </c>
       <c r="O35" t="n">
-        <v>2172.731873259809</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P35" t="n">
-        <v>2252.578791180274</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q35" t="n">
-        <v>2281.22821594422</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R35" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S35" t="n">
-        <v>2151.682665188988</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T35" t="n">
-        <v>2151.682665188988</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="U35" t="n">
-        <v>1896.059719072596</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="V35" t="n">
-        <v>1553.952909776114</v>
+        <v>2010.99529655435</v>
       </c>
       <c r="W35" t="n">
-        <v>1182.953874744402</v>
+        <v>1639.996261522638</v>
       </c>
       <c r="X35" t="n">
-        <v>1182.953874744402</v>
+        <v>1250.543656455694</v>
       </c>
       <c r="Y35" t="n">
-        <v>786.4631656650029</v>
+        <v>1250.543656455694</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>805.8542565822772</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C36" t="n">
-        <v>655.2000261423694</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D36" t="n">
-        <v>525.1110587638498</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E36" t="n">
-        <v>388.6645678747375</v>
+        <v>388.6645678747366</v>
       </c>
       <c r="F36" t="n">
-        <v>264.2327617578693</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G36" t="n">
-        <v>145.0409471682428</v>
+        <v>145.0409471682419</v>
       </c>
       <c r="H36" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I36" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J36" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K36" t="n">
-        <v>94.29784861740944</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L36" t="n">
-        <v>518.8467460773566</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M36" t="n">
-        <v>642.9390928961025</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N36" t="n">
-        <v>779.6814140820742</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O36" t="n">
         <v>1344.285397528269</v>
@@ -7037,7 +7037,7 @@
         <v>1908.889380974463</v>
       </c>
       <c r="Q36" t="n">
-        <v>2251.849419974996</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R36" t="n">
         <v>2281.22821594422</v>
@@ -7046,22 +7046,22 @@
         <v>2162.420320153677</v>
       </c>
       <c r="T36" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U36" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V36" t="n">
-        <v>1556.389131464433</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W36" t="n">
-        <v>1326.27188559772</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X36" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y36" t="n">
-        <v>957.6505910232386</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.3884943936927</v>
+        <v>215.8296822528952</v>
       </c>
       <c r="C37" t="n">
-        <v>201.1833764596819</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D37" t="n">
-        <v>201.1833764596819</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E37" t="n">
         <v>45.6245643188844</v>
@@ -7095,7 +7095,7 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J37" t="n">
-        <v>66.27572420016887</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K37" t="n">
         <v>230.9743700006169</v>
@@ -7119,28 +7119,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.180967666007</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S37" t="n">
-        <v>1343.0467945756</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T37" t="n">
-        <v>1110.437027063975</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="U37" t="n">
-        <v>825.0379282971974</v>
+        <v>1407.539831592568</v>
       </c>
       <c r="V37" t="n">
-        <v>559.0585831180216</v>
+        <v>1141.560486413392</v>
       </c>
       <c r="W37" t="n">
-        <v>371.3884943936927</v>
+        <v>858.2300843445701</v>
       </c>
       <c r="X37" t="n">
-        <v>371.3884943936927</v>
+        <v>624.1497621275531</v>
       </c>
       <c r="Y37" t="n">
-        <v>371.3884943936927</v>
+        <v>401.0377009441964</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>778.3413016708225</v>
+        <v>565.780043129573</v>
       </c>
       <c r="C38" t="n">
-        <v>778.3413016708225</v>
+        <v>565.780043129573</v>
       </c>
       <c r="D38" t="n">
-        <v>778.3413016708225</v>
+        <v>565.780043129573</v>
       </c>
       <c r="E38" t="n">
-        <v>778.3413016708225</v>
+        <v>565.780043129573</v>
       </c>
       <c r="F38" t="n">
-        <v>361.4468632008003</v>
+        <v>457.1650267182661</v>
       </c>
       <c r="G38" t="n">
-        <v>353.0933054128242</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H38" t="n">
         <v>45.6245643188844</v>
@@ -7174,52 +7174,52 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J38" t="n">
-        <v>64.07159183144933</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K38" t="n">
-        <v>124.6989410340955</v>
+        <v>886.4619286807531</v>
       </c>
       <c r="L38" t="n">
-        <v>516.9009964887083</v>
+        <v>985.6616616112329</v>
       </c>
       <c r="M38" t="n">
-        <v>1081.504979934903</v>
+        <v>1116.625612577303</v>
       </c>
       <c r="N38" t="n">
-        <v>1217.587039992441</v>
+        <v>1252.707672634842</v>
       </c>
       <c r="O38" t="n">
-        <v>1782.191023438636</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P38" t="n">
-        <v>1862.037941359101</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q38" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R38" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S38" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T38" t="n">
-        <v>1935.283650848877</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U38" t="n">
-        <v>1935.283650848877</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="V38" t="n">
-        <v>1935.283650848877</v>
+        <v>1722.722392307628</v>
       </c>
       <c r="W38" t="n">
-        <v>1564.284615817165</v>
+        <v>1351.723357275915</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.832010750221</v>
+        <v>962.2707522089719</v>
       </c>
       <c r="Y38" t="n">
-        <v>778.3413016708225</v>
+        <v>565.780043129573</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>805.8542565822772</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C39" t="n">
-        <v>655.2000261423694</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D39" t="n">
-        <v>525.1110587638498</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E39" t="n">
-        <v>388.6645678747375</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F39" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G39" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H39" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I39" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J39" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K39" t="n">
-        <v>94.29784861740944</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L39" t="n">
-        <v>189.8547377639867</v>
+        <v>1260.832261775206</v>
       </c>
       <c r="M39" t="n">
-        <v>754.4587212101812</v>
+        <v>1384.924608593952</v>
       </c>
       <c r="N39" t="n">
-        <v>1319.062704656376</v>
+        <v>1521.666929779924</v>
       </c>
       <c r="O39" t="n">
-        <v>1883.66668810257</v>
+        <v>1632.316572005066</v>
       </c>
       <c r="P39" t="n">
-        <v>1959.906287974891</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q39" t="n">
-        <v>2251.849419974996</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R39" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S39" t="n">
-        <v>2162.420320153677</v>
+        <v>2162.420320153676</v>
       </c>
       <c r="T39" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U39" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V39" t="n">
-        <v>1556.389131464433</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W39" t="n">
-        <v>1326.27188559772</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X39" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y39" t="n">
-        <v>957.6505910232386</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>483.3721864053833</v>
+        <v>432.6515518481852</v>
       </c>
       <c r="C40" t="n">
-        <v>313.1670684713725</v>
+        <v>432.6515518481852</v>
       </c>
       <c r="D40" t="n">
-        <v>313.1670684713725</v>
+        <v>324.3612695265254</v>
       </c>
       <c r="E40" t="n">
-        <v>213.1509133785547</v>
+        <v>324.3612695265254</v>
       </c>
       <c r="F40" t="n">
-        <v>213.1509133785547</v>
+        <v>324.3612695265254</v>
       </c>
       <c r="G40" t="n">
-        <v>45.6245643188844</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="H40" t="n">
-        <v>45.6245643188844</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="I40" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J40" t="n">
-        <v>66.27572420016887</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K40" t="n">
         <v>230.9743700006169</v>
@@ -7362,22 +7362,22 @@
         <v>1624.361701187858</v>
       </c>
       <c r="T40" t="n">
-        <v>1391.751933676234</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.751933676234</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="V40" t="n">
-        <v>1125.772588497058</v>
+        <v>1358.382356008683</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.772588497058</v>
+        <v>1075.05195393986</v>
       </c>
       <c r="X40" t="n">
-        <v>891.6922662800413</v>
+        <v>840.9716317228432</v>
       </c>
       <c r="Y40" t="n">
-        <v>668.5802050966846</v>
+        <v>617.8595705394865</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>832.7252014537399</v>
+        <v>1633.806059233075</v>
       </c>
       <c r="C41" t="n">
-        <v>532.958688401707</v>
+        <v>1633.806059233075</v>
       </c>
       <c r="D41" t="n">
-        <v>532.958688401707</v>
+        <v>1248.364930449743</v>
       </c>
       <c r="E41" t="n">
-        <v>532.958688401707</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="F41" t="n">
-        <v>532.958688401707</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="G41" t="n">
-        <v>121.4182260023253</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H41" t="n">
         <v>121.4182260023253</v>
@@ -7411,52 +7411,52 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J41" t="n">
-        <v>64.07159183144933</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K41" t="n">
-        <v>625.3091162090022</v>
+        <v>886.4619286807531</v>
       </c>
       <c r="L41" t="n">
-        <v>724.5088491394821</v>
+        <v>985.6616616112329</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4728001055526</v>
+        <v>1116.625612577303</v>
       </c>
       <c r="N41" t="n">
-        <v>1420.076783551747</v>
+        <v>1252.707672634842</v>
       </c>
       <c r="O41" t="n">
-        <v>1539.907294220327</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P41" t="n">
-        <v>1862.037941359101</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R41" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S41" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T41" t="n">
-        <v>1935.283650848877</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U41" t="n">
-        <v>1935.283650848877</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="V41" t="n">
-        <v>1593.176841552396</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="W41" t="n">
-        <v>1222.177806520683</v>
+        <v>2023.258664300018</v>
       </c>
       <c r="X41" t="n">
-        <v>832.7252014537399</v>
+        <v>1633.806059233075</v>
       </c>
       <c r="Y41" t="n">
-        <v>832.7252014537399</v>
+        <v>1633.806059233075</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>805.8542565822768</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C42" t="n">
-        <v>655.2000261423689</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D42" t="n">
-        <v>525.1110587638491</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6645678747368</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F42" t="n">
-        <v>264.2327617578685</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G42" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H42" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I42" t="n">
         <v>45.6245643188844</v>
@@ -7493,25 +7493,25 @@
         <v>239.1148819882603</v>
       </c>
       <c r="K42" t="n">
-        <v>304.7788047712377</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L42" t="n">
-        <v>869.3827882174322</v>
+        <v>1002.179883267633</v>
       </c>
       <c r="M42" t="n">
-        <v>993.4751350361781</v>
+        <v>1126.272230086379</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.079118482373</v>
+        <v>1263.014551272351</v>
       </c>
       <c r="O42" t="n">
-        <v>1668.728760707515</v>
+        <v>1373.664193497493</v>
       </c>
       <c r="P42" t="n">
-        <v>2233.332744153709</v>
+        <v>1938.268176943687</v>
       </c>
       <c r="Q42" t="n">
-        <v>2251.849419974996</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R42" t="n">
         <v>2281.22821594422</v>
@@ -7532,10 +7532,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X42" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y42" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1533.223219603321</v>
+        <v>830.6773668570554</v>
       </c>
       <c r="C43" t="n">
-        <v>1363.01810166931</v>
+        <v>830.6773668570554</v>
       </c>
       <c r="D43" t="n">
-        <v>1207.384988571825</v>
+        <v>675.0442537595702</v>
       </c>
       <c r="E43" t="n">
-        <v>1130.236377736078</v>
+        <v>519.4854416187727</v>
       </c>
       <c r="F43" t="n">
-        <v>1130.236377736078</v>
+        <v>362.1595068317456</v>
       </c>
       <c r="G43" t="n">
-        <v>962.7100286764075</v>
+        <v>194.6331577720753</v>
       </c>
       <c r="H43" t="n">
-        <v>813.7014352232167</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I43" t="n">
-        <v>702.491079075246</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J43" t="n">
-        <v>723.1422389565305</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K43" t="n">
-        <v>887.8408847569785</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L43" t="n">
-        <v>1158.005409694044</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M43" t="n">
-        <v>1456.098015863169</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N43" t="n">
-        <v>1748.430299171005</v>
+        <v>1091.563784414643</v>
       </c>
       <c r="O43" t="n">
-        <v>2011.945968069363</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P43" t="n">
-        <v>2218.083276005761</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q43" t="n">
-        <v>2281.22821594422</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.047482422368</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S43" t="n">
-        <v>1999.913309331962</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T43" t="n">
-        <v>1767.303541820337</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="U43" t="n">
-        <v>1767.303541820337</v>
+        <v>1603.09917528841</v>
       </c>
       <c r="V43" t="n">
-        <v>1767.303541820337</v>
+        <v>1337.119830109234</v>
       </c>
       <c r="W43" t="n">
-        <v>1767.303541820337</v>
+        <v>1053.789428040412</v>
       </c>
       <c r="X43" t="n">
-        <v>1533.223219603321</v>
+        <v>1053.789428040412</v>
       </c>
       <c r="Y43" t="n">
-        <v>1533.223219603321</v>
+        <v>830.6773668570554</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>983.6981753664795</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="C44" t="n">
-        <v>590.52267386941</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="D44" t="n">
-        <v>590.52267386941</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="E44" t="n">
-        <v>590.52267386941</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="F44" t="n">
-        <v>590.52267386941</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="G44" t="n">
         <v>353.0933054128242</v>
@@ -7660,40 +7660,40 @@
         <v>1116.625612577303</v>
       </c>
       <c r="N44" t="n">
-        <v>1681.229596023498</v>
+        <v>1252.707672634842</v>
       </c>
       <c r="O44" t="n">
-        <v>1801.060106692078</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P44" t="n">
-        <v>1880.907024612543</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q44" t="n">
-        <v>2218.586637698204</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R44" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S44" t="n">
-        <v>2151.682665188988</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T44" t="n">
-        <v>2151.682665188988</v>
+        <v>1935.283650848877</v>
       </c>
       <c r="U44" t="n">
-        <v>2151.682665188988</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="V44" t="n">
-        <v>2151.682665188988</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.683630157275</v>
+        <v>1561.619222603002</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.683630157275</v>
+        <v>1561.619222603002</v>
       </c>
       <c r="Y44" t="n">
-        <v>1384.192921077876</v>
+        <v>1165.128513523603</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>805.8542565822763</v>
       </c>
       <c r="C45" t="n">
-        <v>655.2000261423685</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D45" t="n">
         <v>525.1110587638489</v>
@@ -7715,40 +7715,40 @@
         <v>388.6645678747366</v>
       </c>
       <c r="F45" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G45" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H45" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I45" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J45" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K45" t="n">
-        <v>502.7379606596359</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L45" t="n">
-        <v>1067.34194410583</v>
+        <v>1002.179883267633</v>
       </c>
       <c r="M45" t="n">
-        <v>1455.746839649222</v>
+        <v>1126.272230086379</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.489160835194</v>
+        <v>1263.014551272351</v>
       </c>
       <c r="O45" t="n">
-        <v>2157.093144281388</v>
+        <v>1373.664193497493</v>
       </c>
       <c r="P45" t="n">
-        <v>2233.332744153709</v>
+        <v>1938.268176943687</v>
       </c>
       <c r="Q45" t="n">
-        <v>2251.849419974996</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R45" t="n">
         <v>2281.22821594422</v>
@@ -7760,16 +7760,16 @@
         <v>1988.935170931927</v>
       </c>
       <c r="U45" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V45" t="n">
-        <v>1556.389131464433</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W45" t="n">
-        <v>1326.27188559772</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X45" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y45" t="n">
         <v>957.6505910232377</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1154.627891858127</v>
+        <v>1177.337903559933</v>
       </c>
       <c r="C46" t="n">
-        <v>1154.627891858127</v>
+        <v>1007.132785625922</v>
       </c>
       <c r="D46" t="n">
-        <v>998.9947787606413</v>
+        <v>851.4996725284365</v>
       </c>
       <c r="E46" t="n">
-        <v>870.0174281349149</v>
+        <v>851.4996725284365</v>
       </c>
       <c r="F46" t="n">
-        <v>870.0174281349149</v>
+        <v>851.4996725284365</v>
       </c>
       <c r="G46" t="n">
-        <v>702.4910790752446</v>
+        <v>851.4996725284365</v>
       </c>
       <c r="H46" t="n">
-        <v>702.4910790752446</v>
+        <v>702.4910790752456</v>
       </c>
       <c r="I46" t="n">
-        <v>702.4910790752446</v>
+        <v>702.4910790752456</v>
       </c>
       <c r="J46" t="n">
-        <v>723.1422389565305</v>
+        <v>723.14223895653</v>
       </c>
       <c r="K46" t="n">
-        <v>887.8408847569785</v>
+        <v>887.8408847569781</v>
       </c>
       <c r="L46" t="n">
         <v>1158.005409694044</v>
       </c>
       <c r="M46" t="n">
-        <v>1456.098015863169</v>
+        <v>1456.098015863168</v>
       </c>
       <c r="N46" t="n">
-        <v>1748.430299171005</v>
+        <v>1748.430299171004</v>
       </c>
       <c r="O46" t="n">
         <v>2011.945968069363</v>
@@ -7830,28 +7830,28 @@
         <v>2281.22821594422</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.047482422368</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S46" t="n">
-        <v>2190.047482422368</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T46" t="n">
-        <v>1957.437714910744</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U46" t="n">
-        <v>1672.038616143966</v>
+        <v>1995.829117177442</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.038616143966</v>
+        <v>1729.849771998266</v>
       </c>
       <c r="W46" t="n">
-        <v>1388.708214075143</v>
+        <v>1596.626244468251</v>
       </c>
       <c r="X46" t="n">
-        <v>1154.627891858127</v>
+        <v>1362.545922251234</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.627891858127</v>
+        <v>1362.545922251234</v>
       </c>
     </row>
   </sheetData>
@@ -8695,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>426.6569291652067</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>438.0202348284078</v>
+        <v>368.552414867683</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>432.8504276653093</v>
       </c>
       <c r="O11" t="n">
-        <v>449.2661341188023</v>
+        <v>449.2661341188025</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.24329354122969</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>351.8275733208337</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>473.7849437369867</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>182.8443634573938</v>
       </c>
       <c r="O12" t="n">
-        <v>458.5397386071236</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>429.8039896812039</v>
       </c>
       <c r="L14" t="n">
-        <v>470.1053035512266</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>489.6536015411399</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q14" t="n">
-        <v>112.308269077469</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>39.24329354122969</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>121.6251894600295</v>
       </c>
       <c r="L15" t="n">
-        <v>473.7849437369867</v>
+        <v>473.784943736987</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>432.1834972325479</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>242.2825779020729</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>493.2973571453264</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>41.33825342159543</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,22 +9169,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>470.1053035512266</v>
+        <v>470.1053035512268</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>438.020234828408</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>432.8504276653093</v>
       </c>
       <c r="O17" t="n">
-        <v>449.2661341188023</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>489.6536015411399</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.7089785696835</v>
+        <v>236.7580517359092</v>
       </c>
       <c r="R17" t="n">
         <v>39.24329354122969</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>423.1045713093376</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="N18" t="n">
-        <v>432.1834972325479</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>458.5397386071236</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>41.33825342159543</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>449.2661341188023</v>
+        <v>251.2021871992449</v>
       </c>
       <c r="P20" t="n">
-        <v>489.6536015411399</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q20" t="n">
-        <v>311.749240991852</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>432.1834972325479</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>358.6714012870698</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>493.2973571453264</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9652,10 +9652,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>134.9164605258552</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>42.87416250348593</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9719,28 +9719,28 @@
         <v>1.257249808435873</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>669.7270375932465</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>153.6697485256137</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>41.33825342159543</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>46.53502136698987</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>305.383611465415</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M27" t="n">
-        <v>39.57623261069931</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>46.53502136698987</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>135.8702828538594</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>705.6413169915485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>209.0153530084834</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>41.33825342159543</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>223.1293798386681</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>134.9164605258561</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M33" t="n">
-        <v>172.9251185149448</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10588,13 +10588,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>405.8177597327831</v>
+        <v>429.8039896812039</v>
       </c>
       <c r="L35" t="n">
-        <v>470.1053035512269</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>438.0202348284082</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>39.24329354122969</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>332.3151599124948</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9619419435687</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>438.0202348284082</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>449.2661341188027</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>477.06506907195</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>473.784943736987</v>
       </c>
       <c r="M39" t="n">
-        <v>444.9612491186349</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>432.1834972325482</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>202.3567768657334</v>
       </c>
       <c r="Q39" t="n">
-        <v>276.188339574563</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>432.8504276653094</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>244.7310396144532</v>
+        <v>477.06506907195</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>17.16226109540644</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>473.7849437369871</v>
+        <v>212.5199149414589</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>432.1834972325482</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>41.33825342159543</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>432.8504276653094</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>413.7907476113271</v>
       </c>
       <c r="Q44" t="n">
-        <v>312.1517053754695</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>1.257249808435873</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>473.7849437369871</v>
+        <v>212.5199149414589</v>
       </c>
       <c r="M45" t="n">
-        <v>266.9823724491368</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>41.33825342159543</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.4250577753879</v>
+        <v>406.5140169980392</v>
       </c>
       <c r="H11" t="n">
         <v>304.3940536830004</v>
       </c>
       <c r="I11" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T11" t="n">
         <v>214.2350241967096</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>72.64025511894204</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.8510855690736</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S13" t="n">
-        <v>188.2328313595025</v>
+        <v>166.5562275655287</v>
       </c>
       <c r="T13" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>219.6708133516539</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>9.877936094638699</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>234.8627918527</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>407.4250577753879</v>
@@ -23548,19 +23548,19 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T14" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0667166552282</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23655,22 +23655,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>56.2892717812807</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.05673048378091</v>
       </c>
       <c r="I16" t="n">
         <v>110.098252586491</v>
@@ -23703,7 +23703,7 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S16" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,13 +23737,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>362.302689295565</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.4250577753879</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>181.9585663939267</v>
       </c>
       <c r="U17" t="n">
         <v>253.0667166552282</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>129.6720599616105</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23907,7 +23907,7 @@
         <v>165.8510855690736</v>
       </c>
       <c r="H19" t="n">
-        <v>28.60283623370691</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I19" t="n">
         <v>110.098252586491</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>205.7112539823785</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>288.6936429219157</v>
       </c>
     </row>
     <row r="21">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>172.4400051865058</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.17107899987238</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>11.14849747267613</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>165.5068385928348</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>130.0013940306448</v>
+        <v>95.17580650632988</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.8510855690736</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22.08375699378104</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>33.01547623178919</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24618,10 +24618,10 @@
         <v>165.8510855690736</v>
       </c>
       <c r="H28" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.098252586491</v>
+        <v>93.76869799007613</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U28" t="n">
-        <v>144.8542657803623</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>114.1795015650634</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>37.25674334515477</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.936938431835074</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>113.1561196913943</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>11.14849747267601</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>29.32980876596429</v>
       </c>
       <c r="G32" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25086,10 +25086,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8510855690736</v>
+        <v>63.44342247354874</v>
       </c>
       <c r="H34" t="n">
         <v>147.518507518659</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>144.8542657803623</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>54.37122078406236</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>407.4250577753879</v>
@@ -25210,19 +25210,19 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>199.4052462552261</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.1242882392755</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>94.7037102110485</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>305.1966278381282</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1550355652915</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I38" t="n">
         <v>75.03572506660649</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>253.0667166552282</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>46.86940246806715</v>
       </c>
       <c r="E40" t="n">
-        <v>54.98723047749989</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25569,7 +25569,7 @@
         <v>147.518507518659</v>
       </c>
       <c r="I40" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>188.2328313595025</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U40" t="n">
         <v>282.5451077791103</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>92.47489856058615</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H41" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U41" t="n">
         <v>253.0667166552282</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>111.8991885536358</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>77.62609929200029</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5451077791103</v>
+        <v>261.4952071386565</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25879,7 +25879,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>172.3699830033679</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>250.4279773732072</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.31564689992034</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H46" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.098252586491</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S46" t="n">
         <v>188.2328313595025</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>148.6058057934189</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>524545.041993909</v>
+        <v>524545.0419939093</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>524545.0419939092</v>
+        <v>524545.0419939095</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>524545.0419939092</v>
+        <v>524545.0419939094</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750419.5121108369</v>
+        <v>750419.512110837</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750419.5121108369</v>
+        <v>750419.5121108372</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750419.5121108369</v>
+        <v>750419.512110837</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750419.5121108369</v>
+        <v>750419.5121108372</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>524545.0419939094</v>
+        <v>524545.0419939092</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>524545.0419939094</v>
+        <v>524545.0419939093</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>593667.4303385663</v>
       </c>
       <c r="D2" t="n">
-        <v>593667.4303385664</v>
+        <v>593667.4303385663</v>
       </c>
       <c r="E2" t="n">
-        <v>393277.7387057621</v>
+        <v>393277.738705762</v>
       </c>
       <c r="F2" t="n">
-        <v>393277.7387057618</v>
+        <v>393277.738705762</v>
       </c>
       <c r="G2" t="n">
-        <v>393277.7387057618</v>
+        <v>393277.738705762</v>
       </c>
       <c r="H2" t="n">
-        <v>393277.7387057621</v>
+        <v>393277.7387057622</v>
       </c>
       <c r="I2" t="n">
-        <v>538621.7095899753</v>
+        <v>538621.7095899755</v>
       </c>
       <c r="J2" t="n">
-        <v>538621.7095899753</v>
+        <v>538621.7095899754</v>
       </c>
       <c r="K2" t="n">
-        <v>538621.7095899753</v>
+        <v>538621.7095899755</v>
       </c>
       <c r="L2" t="n">
-        <v>538621.7095899753</v>
+        <v>538621.7095899755</v>
       </c>
       <c r="M2" t="n">
         <v>393277.7387057622</v>
       </c>
       <c r="N2" t="n">
-        <v>393277.738705762</v>
+        <v>393277.7387057621</v>
       </c>
       <c r="O2" t="n">
-        <v>393277.7387057623</v>
+        <v>393277.7387057621</v>
       </c>
       <c r="P2" t="n">
-        <v>393277.7387057622</v>
+        <v>393277.7387057621</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>491248.6380672195</v>
+        <v>491248.6380672196</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>377542.8357541459</v>
       </c>
       <c r="E4" t="n">
-        <v>84067.93092499912</v>
+        <v>84067.93092499916</v>
       </c>
       <c r="F4" t="n">
-        <v>84067.93092499913</v>
+        <v>84067.93092499916</v>
       </c>
       <c r="G4" t="n">
-        <v>84067.93092499912</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="H4" t="n">
-        <v>84067.93092499912</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="I4" t="n">
         <v>147250.6064909445</v>
       </c>
       <c r="J4" t="n">
-        <v>147250.6064909445</v>
+        <v>147250.6064909446</v>
       </c>
       <c r="K4" t="n">
         <v>147250.6064909445</v>
       </c>
       <c r="L4" t="n">
-        <v>147250.6064909445</v>
+        <v>147250.6064909446</v>
       </c>
       <c r="M4" t="n">
-        <v>84067.93092499915</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="N4" t="n">
-        <v>84067.93092499916</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="O4" t="n">
-        <v>84067.93092499919</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="P4" t="n">
-        <v>84067.93092499919</v>
+        <v>84067.93092499918</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43383.98595902141</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="F5" t="n">
-        <v>43383.98595902141</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="G5" t="n">
-        <v>43383.98595902141</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="H5" t="n">
-        <v>43383.98595902141</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="I5" t="n">
-        <v>78058.65484137354</v>
+        <v>78058.65484137356</v>
       </c>
       <c r="J5" t="n">
-        <v>78058.65484137354</v>
+        <v>78058.65484137356</v>
       </c>
       <c r="K5" t="n">
-        <v>78058.65484137354</v>
+        <v>78058.65484137356</v>
       </c>
       <c r="L5" t="n">
-        <v>78058.65484137354</v>
+        <v>78058.65484137356</v>
       </c>
       <c r="M5" t="n">
         <v>43383.98595902143</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182496.9945844206</v>
+        <v>182492.6650166341</v>
       </c>
       <c r="C6" t="n">
-        <v>182496.9945844205</v>
+        <v>182492.665016634</v>
       </c>
       <c r="D6" t="n">
-        <v>182496.9945844206</v>
+        <v>182492.665016634</v>
       </c>
       <c r="E6" t="n">
-        <v>-225422.8162454779</v>
+        <v>-226034.3873030609</v>
       </c>
       <c r="F6" t="n">
-        <v>265825.8218217413</v>
+        <v>265214.2507641586</v>
       </c>
       <c r="G6" t="n">
-        <v>265825.8218217413</v>
+        <v>265214.2507641586</v>
       </c>
       <c r="H6" t="n">
-        <v>265825.8218217416</v>
+        <v>265214.2507641588</v>
       </c>
       <c r="I6" t="n">
-        <v>161655.8261546316</v>
+        <v>161484.6913724557</v>
       </c>
       <c r="J6" t="n">
-        <v>313312.4482576572</v>
+        <v>313141.3134754812</v>
       </c>
       <c r="K6" t="n">
-        <v>313312.4482576572</v>
+        <v>313141.3134754814</v>
       </c>
       <c r="L6" t="n">
-        <v>313312.4482576572</v>
+        <v>313141.3134754814</v>
       </c>
       <c r="M6" t="n">
-        <v>265825.8218217416</v>
+        <v>265214.2507641588</v>
       </c>
       <c r="N6" t="n">
-        <v>265825.8218217414</v>
+        <v>265214.2507641587</v>
       </c>
       <c r="O6" t="n">
-        <v>265825.8218217417</v>
+        <v>265214.2507641587</v>
       </c>
       <c r="P6" t="n">
-        <v>265825.8218217416</v>
+        <v>265214.2507641587</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="F4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="G4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="H4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="I4" t="n">
         <v>1140.61410797211</v>
@@ -26822,16 +26822,16 @@
         <v>1140.61410797211</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="N4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="P4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>61.23974666933955</v>
       </c>
       <c r="L11" t="n">
-        <v>526.8586796000349</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M11" t="n">
-        <v>570.3070539860547</v>
+        <v>500.8392340253299</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4566263207456</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O11" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="P11" t="n">
         <v>80.65345244491479</v>
@@ -35433,7 +35433,7 @@
         <v>28.93881289287427</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9925069557074</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L12" t="n">
-        <v>570.3070539860547</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M12" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N12" t="n">
-        <v>138.1235567535068</v>
+        <v>320.9679202109006</v>
       </c>
       <c r="O12" t="n">
-        <v>570.3070539860547</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P12" t="n">
-        <v>77.00969684072834</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q12" t="n">
         <v>346.4242818187195</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.63336112380296</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K14" t="n">
-        <v>566.9065902803566</v>
+        <v>491.0437363505434</v>
       </c>
       <c r="L14" t="n">
-        <v>570.3070539860547</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M14" t="n">
         <v>132.2868191576469</v>
@@ -35664,13 +35664,13 @@
         <v>121.0409198672524</v>
       </c>
       <c r="P14" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.2470819703433</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K15" t="n">
-        <v>49.16493363487378</v>
+        <v>170.7901230949032</v>
       </c>
       <c r="L15" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="M15" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N15" t="n">
-        <v>570.3070539860547</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0498932810041</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P15" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.70371295079488</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>61.23974666933955</v>
       </c>
       <c r="L17" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2868191576469</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="N17" t="n">
-        <v>137.4566263207456</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O17" t="n">
-        <v>570.3070539860547</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P17" t="n">
-        <v>570.3070539860547</v>
+        <v>80.65345244491479</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.6477914625578</v>
+        <v>265.6968646287835</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K18" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L18" t="n">
         <v>96.52211024906798</v>
       </c>
       <c r="M18" t="n">
-        <v>548.4503761767578</v>
+        <v>308.1901683248138</v>
       </c>
       <c r="N18" t="n">
-        <v>570.3070539860547</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O18" t="n">
-        <v>570.3070539860547</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P18" t="n">
-        <v>77.00969684072834</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q18" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.424080792238</v>
+        <v>18.63336112380296</v>
       </c>
       <c r="K20" t="n">
-        <v>61.23974666933955</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L20" t="n">
         <v>100.2017504348281</v>
@@ -36135,16 +36135,16 @@
         <v>137.4566263207456</v>
       </c>
       <c r="O20" t="n">
-        <v>570.3070539860547</v>
+        <v>372.2431070664973</v>
       </c>
       <c r="P20" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.6880538847263</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R20" t="n">
-        <v>63.27432146062291</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K21" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L21" t="n">
-        <v>96.52211024906798</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="M21" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N21" t="n">
-        <v>570.3070539860547</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O21" t="n">
-        <v>470.438716666001</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P21" t="n">
-        <v>570.3070539860547</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q21" t="n">
         <v>346.4242818187195</v>
@@ -36372,10 +36372,10 @@
         <v>819.7178284034409</v>
       </c>
       <c r="O23" t="n">
-        <v>255.9573803931076</v>
+        <v>715.089202637135</v>
       </c>
       <c r="P23" t="n">
-        <v>582.6594371924277</v>
+        <v>123.5276149484007</v>
       </c>
       <c r="Q23" t="n">
         <v>360.1501983223255</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L24" t="n">
-        <v>96.52211024906798</v>
+        <v>675.0330489224642</v>
       </c>
       <c r="M24" t="n">
-        <v>795.0728424606666</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N24" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O24" t="n">
-        <v>726.1925334506292</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P24" t="n">
-        <v>77.00969684072834</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q24" t="n">
-        <v>346.4242818187195</v>
+        <v>172.3734614764086</v>
       </c>
       <c r="R24" t="n">
-        <v>29.67555148406505</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>282.424080792238</v>
       </c>
       <c r="K26" t="n">
-        <v>107.7747680363294</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L26" t="n">
         <v>751.7532451335308</v>
       </c>
       <c r="M26" t="n">
-        <v>833.5279314064657</v>
+        <v>437.6704306230619</v>
       </c>
       <c r="N26" t="n">
         <v>819.7178284034409</v>
@@ -36618,7 +36618,7 @@
         <v>360.1501983223255</v>
       </c>
       <c r="R26" t="n">
-        <v>63.27432146062291</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K27" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L27" t="n">
-        <v>96.52211024906798</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M27" t="n">
-        <v>164.9220374781194</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N27" t="n">
-        <v>885.8976607294503</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O27" t="n">
         <v>111.7673153789312</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.424080792238</v>
+        <v>18.63336112380296</v>
       </c>
       <c r="K29" t="n">
-        <v>107.7747680363294</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L29" t="n">
         <v>751.7532451335308</v>
@@ -36852,7 +36852,7 @@
         <v>582.6594371924277</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.1501983223255</v>
+        <v>164.8090957467337</v>
       </c>
       <c r="R29" t="n">
         <v>63.27432146062291</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K30" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L30" t="n">
-        <v>675.0330489224642</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M30" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N30" t="n">
-        <v>843.7648737450553</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O30" t="n">
-        <v>111.7673153789312</v>
+        <v>320.7826683874146</v>
       </c>
       <c r="P30" t="n">
-        <v>77.00969684072834</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q30" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R30" t="n">
-        <v>29.67555148406505</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>833.5279314064657</v>
       </c>
       <c r="N32" t="n">
-        <v>360.5860061594138</v>
+        <v>819.7178284034409</v>
       </c>
       <c r="O32" t="n">
-        <v>715.089202637135</v>
+        <v>255.9573803931085</v>
       </c>
       <c r="P32" t="n">
         <v>582.6594371924277</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K33" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L33" t="n">
-        <v>96.52211024906798</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M33" t="n">
-        <v>298.2709233823649</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N33" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O33" t="n">
-        <v>726.1925334506292</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P33" t="n">
         <v>573.8116159190303</v>
@@ -37308,13 +37308,13 @@
         <v>282.424080792238</v>
       </c>
       <c r="K35" t="n">
-        <v>467.0575064021227</v>
+        <v>491.0437363505434</v>
       </c>
       <c r="L35" t="n">
-        <v>570.3070539860551</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M35" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N35" t="n">
         <v>137.4566263207456</v>
@@ -37323,13 +37323,13 @@
         <v>121.0409198672524</v>
       </c>
       <c r="P35" t="n">
-        <v>80.65345244491479</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.93881289287427</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K36" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L36" t="n">
-        <v>428.8372701615627</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="M36" t="n">
         <v>125.3458048674201</v>
@@ -37399,10 +37399,10 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O36" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P36" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q36" t="n">
         <v>346.4242818187195</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.63336112380296</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K38" t="n">
-        <v>61.23974666933955</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L38" t="n">
-        <v>396.1636923783968</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M38" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N38" t="n">
         <v>137.4566263207456</v>
       </c>
       <c r="O38" t="n">
-        <v>570.3070539860551</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P38" t="n">
-        <v>80.65345244491479</v>
+        <v>557.7185215168648</v>
       </c>
       <c r="Q38" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R38" t="n">
-        <v>63.27432146062291</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K39" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L39" t="n">
-        <v>96.52211024906798</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="M39" t="n">
-        <v>570.3070539860551</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N39" t="n">
-        <v>570.3070539860551</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O39" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P39" t="n">
-        <v>77.00969684072834</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.8920525253578</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R39" t="n">
         <v>29.67555148406505</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>18.63336112380296</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K41" t="n">
         <v>566.9065902803566</v>
@@ -37791,19 +37791,19 @@
         <v>132.2868191576469</v>
       </c>
       <c r="N41" t="n">
-        <v>570.3070539860551</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O41" t="n">
         <v>121.0409198672524</v>
       </c>
       <c r="P41" t="n">
-        <v>325.384492059368</v>
+        <v>557.7185215168648</v>
       </c>
       <c r="Q41" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R41" t="n">
-        <v>63.27432146062291</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>195.4447653226019</v>
       </c>
       <c r="K42" t="n">
-        <v>66.32719473028021</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L42" t="n">
-        <v>570.3070539860551</v>
+        <v>309.0420251905268</v>
       </c>
       <c r="M42" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N42" t="n">
-        <v>570.3070539860551</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O42" t="n">
         <v>111.7673153789312</v>
       </c>
       <c r="P42" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.70371295079488</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R42" t="n">
-        <v>29.67555148406505</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>132.2868191576469</v>
       </c>
       <c r="N44" t="n">
-        <v>570.3070539860551</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O44" t="n">
         <v>121.0409198672524</v>
       </c>
       <c r="P44" t="n">
-        <v>80.65345244491479</v>
+        <v>494.4442000562419</v>
       </c>
       <c r="Q44" t="n">
-        <v>341.0905182683438</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R44" t="n">
         <v>63.27432146062291</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K45" t="n">
         <v>461.7307033744964</v>
       </c>
       <c r="L45" t="n">
-        <v>570.3070539860551</v>
+        <v>309.0420251905268</v>
       </c>
       <c r="M45" t="n">
-        <v>392.3281773165569</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N45" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O45" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P45" t="n">
-        <v>77.00969684072834</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.70371295079488</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R45" t="n">
-        <v>29.67555148406505</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.85975745584435</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K46" t="n">
         <v>166.362268485301</v>
